--- a/test-files/expression-data-test-sheets/expression_sheet_missing_data_error.xlsx
+++ b/test-files/expression-data-test-sheets/expression_sheet_missing_data_error.xlsx
@@ -5,22 +5,21 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4367f292fd6c3524/GRNsight/test-files/expression-data-test-sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\OneDrive\GRNsight\test-files\expression-data-test-sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{425B169E-31E4-4C2D-A01D-CEEFD8231015}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{768D0226-4E5D-4117-BDC2-85F7D09827DB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AC693B-6E5B-45E0-85D9-767B3D71F53D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="1000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="5" r:id="rId1"/>
     <sheet name="degradation_rates" sheetId="4" r:id="rId2"/>
     <sheet name="wt_log2_expression" sheetId="6" r:id="rId3"/>
-    <sheet name="dgln3_log2_expression" sheetId="12" r:id="rId4"/>
-    <sheet name="network" sheetId="2" r:id="rId5"/>
-    <sheet name="network_weights" sheetId="3" r:id="rId6"/>
-    <sheet name="optimization_parameters" sheetId="9" r:id="rId7"/>
-    <sheet name="threshold_b" sheetId="10" r:id="rId8"/>
+    <sheet name="network" sheetId="2" r:id="rId4"/>
+    <sheet name="network_weights" sheetId="3" r:id="rId5"/>
+    <sheet name="optimization_parameters" sheetId="9" r:id="rId6"/>
+    <sheet name="threshold_b" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>ACE2</t>
   </si>
@@ -1362,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1736,11 +1735,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1748,196 +1747,61 @@
     <col min="1" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1">
-        <v>30</v>
-      </c>
-      <c r="K1" s="1">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1">
-        <v>60</v>
-      </c>
-      <c r="N1" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>3</v>
-      </c>
-      <c r="N4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1951,86 +1815,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2110,7 +1894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -2281,7 +2065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/test-files/expression-data-test-sheets/expression_sheet_missing_data_error.xlsx
+++ b/test-files/expression-data-test-sheets/expression_sheet_missing_data_error.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\OneDrive\GRNsight\test-files\expression-data-test-sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSloaner\Ona\GRNsight\GRNsight\test-files\expression-data-test-sheets\To Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AC693B-6E5B-45E0-85D9-767B3D71F53D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="5" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="optimization_parameters" sheetId="9" r:id="rId6"/>
     <sheet name="threshold_b" sheetId="10" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>ACE2</t>
   </si>
@@ -115,16 +114,25 @@
   </si>
   <si>
     <t>dgln3</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>Saccharomyces cerevisiae</t>
+  </si>
+  <si>
+    <t>taxon_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,6 +172,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -532,12 +546,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="348">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -887,7 +902,7 @@
     <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="277" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="Normal 3" xfId="277"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1223,7 +1238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1297,7 +1312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1358,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1735,10 +1750,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1815,7 +1830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1895,11 +1910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2053,6 +2068,24 @@
       <c r="E16" s="2">
         <v>15</v>
       </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5">
+        <v>559292</v>
+      </c>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2066,7 +2099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
